--- a/data/description/sar1.xlsx
+++ b/data/description/sar1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Julie\develop\money_laundry\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzuli\Documents\python\money_laundry\data\description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3104B65B-77E3-4500-B099-3BE2A505826B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FB4BFC-8CD3-42D2-8B59-35324659F6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,20 +523,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.35546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="122" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>40</v>
       </c>
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44</v>
       </c>
@@ -587,7 +587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>61</v>
       </c>
@@ -604,7 +604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>81</v>
       </c>
@@ -621,7 +621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>85</v>
       </c>
@@ -638,7 +638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>86</v>
       </c>
@@ -655,7 +655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>100</v>
       </c>
@@ -672,7 +672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>111</v>
       </c>
@@ -689,7 +689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>159</v>
       </c>
@@ -706,7 +706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>173</v>
       </c>
@@ -723,7 +723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>342</v>
       </c>
@@ -740,7 +740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>380</v>
       </c>
@@ -757,7 +757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>1234</v>
       </c>
@@ -774,7 +774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>1333</v>
       </c>
@@ -791,7 +791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>1344</v>
       </c>
@@ -808,7 +808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>1408</v>
       </c>
@@ -825,7 +825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>1587</v>
       </c>
@@ -842,7 +842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>1724</v>
       </c>
@@ -859,7 +859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>1731</v>
       </c>
@@ -876,7 +876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>1732</v>
       </c>
@@ -893,7 +893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>1799</v>
       </c>
@@ -908,7 +908,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>1825</v>
       </c>
@@ -923,7 +923,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>1864</v>
       </c>
@@ -938,7 +938,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>1874</v>
       </c>
@@ -953,7 +953,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>1948</v>
       </c>
@@ -968,7 +968,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>1954</v>
       </c>
@@ -983,7 +983,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>1958</v>
       </c>
@@ -998,7 +998,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>1959</v>
       </c>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>1960</v>
       </c>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>1985</v>
       </c>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>1991</v>
       </c>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2013</v>
       </c>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2021</v>
       </c>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2039</v>
       </c>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2076</v>
       </c>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2081</v>
       </c>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2084</v>
       </c>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2104</v>
       </c>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2118</v>
       </c>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2120</v>
       </c>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2142</v>
       </c>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2145</v>
       </c>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2161</v>
       </c>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2167</v>
       </c>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>2172</v>
       </c>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>2187</v>
       </c>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>2215</v>
       </c>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>2238</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>2252</v>
       </c>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>2267</v>
       </c>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>2275</v>
       </c>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>2298</v>
       </c>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>2306</v>
       </c>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>2307</v>
       </c>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>2311</v>
       </c>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>2317</v>
       </c>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>2341</v>
       </c>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>2344</v>
       </c>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>2353</v>
       </c>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>2355</v>
       </c>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>2356</v>
       </c>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>2374</v>
       </c>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>2379</v>
       </c>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>2405</v>
       </c>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>2411</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>2413</v>
       </c>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>2428</v>
       </c>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>2434</v>
       </c>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>2439</v>
       </c>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>2442</v>
       </c>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>2451</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>2456</v>
       </c>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>2483</v>
       </c>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>2487</v>
       </c>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>2492</v>
       </c>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>2510</v>
       </c>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>2535</v>
       </c>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>2538</v>
       </c>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>2560</v>
       </c>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>2568</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>2574</v>
       </c>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>2577</v>
       </c>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>2623</v>
       </c>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>2624</v>
       </c>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>2628</v>
       </c>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>2658</v>
       </c>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>2665</v>
       </c>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>2674</v>
       </c>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>2676</v>
       </c>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>2744</v>
       </c>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>2748</v>
       </c>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>2753</v>
       </c>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>2771</v>
       </c>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>2782</v>
       </c>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>2791</v>
       </c>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>2810</v>
       </c>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>2816</v>
       </c>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>2840</v>
       </c>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>2843</v>
       </c>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>2844</v>
       </c>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>2849</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>2853</v>
       </c>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>2861</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>2974</v>
       </c>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>2976</v>
       </c>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>2995</v>
       </c>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>3026</v>
       </c>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>3063</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>3075</v>
       </c>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>3106</v>
       </c>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>3117</v>
       </c>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>3129</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>3175</v>
       </c>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>3193</v>
       </c>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>3195</v>
       </c>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>3198</v>
       </c>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>3225</v>
       </c>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>3233</v>
       </c>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>3263</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>3280</v>
       </c>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>3307</v>
       </c>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>3309</v>
       </c>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>3328</v>
       </c>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>3338</v>
       </c>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>3350</v>
       </c>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>3356</v>
       </c>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>3367</v>
       </c>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>3375</v>
       </c>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>3389</v>
       </c>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>3406</v>
       </c>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>3421</v>
       </c>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>3439</v>
       </c>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>3451</v>
       </c>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>3464</v>
       </c>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>3476</v>
       </c>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>3491</v>
       </c>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>3509</v>
       </c>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>3554</v>
       </c>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>3564</v>
       </c>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>3570</v>
       </c>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>3578</v>
       </c>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>3586</v>
       </c>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>3657</v>
       </c>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>3666</v>
       </c>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>3672</v>
       </c>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>3681</v>
       </c>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>3693</v>
       </c>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>3726</v>
       </c>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>3745</v>
       </c>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>3750</v>
       </c>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>3772</v>
       </c>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>3781</v>
       </c>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>3796</v>
       </c>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>3800</v>
       </c>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>3814</v>
       </c>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>3815</v>
       </c>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>3817</v>
       </c>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>3857</v>
       </c>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>3890</v>
       </c>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>3908</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>3945</v>
       </c>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>4059</v>
       </c>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>4062</v>
       </c>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>4063</v>
       </c>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>4076</v>
       </c>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>4147</v>
       </c>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>4165</v>
       </c>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>4171</v>
       </c>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>4179</v>
       </c>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>4220</v>
       </c>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>4244</v>
       </c>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>4261</v>
       </c>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>4284</v>
       </c>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>4292</v>
       </c>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>4295</v>
       </c>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>4304</v>
       </c>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>4328</v>
       </c>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>4337</v>
       </c>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>4357</v>
       </c>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>4389</v>
       </c>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>4480</v>
       </c>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>4525</v>
       </c>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>4533</v>
       </c>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>4569</v>
       </c>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>4585</v>
       </c>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>4615</v>
       </c>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>4620</v>
       </c>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>4644</v>
       </c>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>4655</v>
       </c>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>4671</v>
       </c>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>4739</v>
       </c>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>4755</v>
       </c>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>4756</v>
       </c>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>4820</v>
       </c>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>4870</v>
       </c>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>4884</v>
       </c>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>4955</v>
       </c>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>4981</v>
       </c>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>5021</v>
       </c>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>5026</v>
       </c>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>5115</v>
       </c>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>5146</v>
       </c>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
         <v>5152</v>
       </c>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>5243</v>
       </c>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
         <v>5252</v>
       </c>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
         <v>5256</v>
       </c>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
         <v>5297</v>
       </c>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
         <v>5356</v>
       </c>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
         <v>5443</v>
       </c>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
         <v>5476</v>
       </c>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
         <v>5490</v>
       </c>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
         <v>5559</v>
       </c>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
         <v>5620</v>
       </c>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
         <v>5668</v>
       </c>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
         <v>5738</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
         <v>5755</v>
       </c>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
         <v>5832</v>
       </c>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
         <v>5867</v>
       </c>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
         <v>5872</v>
       </c>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
         <v>5885</v>
       </c>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
         <v>5910</v>
       </c>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
         <v>5944</v>
       </c>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
         <v>5983</v>
       </c>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
         <v>5993</v>
       </c>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
         <v>5996</v>
       </c>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
         <v>6031</v>
       </c>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
         <v>6036</v>
       </c>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
         <v>6283</v>
       </c>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
         <v>6487</v>
       </c>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
         <v>6963</v>
       </c>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
         <v>7038</v>
       </c>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
         <v>7100</v>
       </c>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
         <v>7216</v>
       </c>
